--- a/daniela/Wetlands_Area_WL.xlsx
+++ b/daniela/Wetlands_Area_WL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Documents\Ecuador22\Ecuador2022\daniela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEAF39A8-1071-4C6E-9364-4A56EB8A85BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76DF76D-5751-4CD1-A002-2B4B8BD71DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0618507D-6C9E-43C8-B1A3-E8C9D4348E62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Wetland</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>WL time 12:45</t>
+  </si>
+  <si>
+    <t>no data yet</t>
   </si>
 </sst>
 </file>
@@ -94,18 +97,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -140,18 +137,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -161,14 +146,26 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="19" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="19" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="19" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +484,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,54 +525,54 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="7">
         <v>44728</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="8">
         <v>0.47638888888888892</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>3520</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="6">
         <v>0.1217371</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="7">
         <v>44740</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="8">
         <v>0.47986111111111113</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>4549</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>0.37125829999999999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="6">
         <v>1029</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="6">
         <v>24.952120000000001</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="6">
         <v>41.238980900000001</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
@@ -593,11 +590,11 @@
       <c r="E4" s="6">
         <v>0.15192149999999999</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
@@ -624,60 +621,60 @@
       <c r="H5" s="6">
         <v>4.6939174650000002</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="7">
         <v>44728</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>0.51874999999999993</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>463</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>0.41212969999999999</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="7">
         <v>44741</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>0.37708333333333338</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>0.44248739999999998</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="6">
         <v>129</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="6">
         <v>3.0357699999999999</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="6">
         <v>42.493337769999997</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
@@ -695,11 +692,11 @@
       <c r="E8" s="6">
         <v>0.46727740000000001</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
@@ -726,8 +723,8 @@
       <c r="H9" s="6">
         <v>-686.44612129999996</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
@@ -754,32 +751,32 @@
       <c r="H10" s="6">
         <v>7.4555438010000001</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="7">
         <v>44753</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="8">
         <v>0.42152777777777778</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>250.84</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>0.39992329999999998</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
@@ -797,33 +794,33 @@
       <c r="E12" s="6">
         <v>0.38159850000000001</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="7">
         <v>44754</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>198.01</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="6">
         <v>0.45538719999999999</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
@@ -841,48 +838,48 @@
       <c r="E14" s="6">
         <v>0.61880120000000005</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="7">
         <v>44754</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="8">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="6">
         <v>56.85</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="6">
         <v>0.64173530000000001</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>44753</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="5">
         <v>0.46180555555555558</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="2">
         <v>31.01</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="2">
         <v>0.31727300000000003</v>
       </c>
       <c r="F16" s="1"/>
@@ -894,17 +891,19 @@
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <v>12</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="3">
         <v>44831</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="4">
         <v>0.56458333333333333</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="2">
+        <v>0.27941379999999999</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -912,19 +911,21 @@
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>44827</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="4">
         <v>0.55347222222222225</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="2">
         <v>250.59</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="2">
+        <v>0.26640819999999998</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -932,19 +933,21 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6">
+      <c r="A19" s="2">
         <v>9</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="3">
         <v>44831</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="4">
         <v>0.51180555555555551</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="2">
         <v>25.14</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="2">
+        <v>0.61310089999999995</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -952,39 +955,43 @@
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>10</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="3">
         <v>44831</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="4">
         <v>0.49583333333333335</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="2">
         <v>48.84</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="2">
+        <v>0.55651519999999999</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="6">
+    <row r="21" spans="1:10" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="3">
         <v>44831</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="4">
         <v>0.57986111111111105</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="2">
         <v>489.99</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -992,17 +999,19 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="6">
+      <c r="A22" s="2">
         <v>11</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <v>44827</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="4">
         <v>0.53125</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="2">
+        <v>0.2250576</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1010,19 +1019,21 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6">
+      <c r="A23" s="2">
         <v>8</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>44831</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="4">
         <v>0.50347222222222221</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="2">
         <v>174.83</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="2">
+        <v>0.41273130000000002</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1030,19 +1041,21 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="6">
+      <c r="A24" s="2">
         <v>7</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <v>44765</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="4">
         <v>0.5395833333333333</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="2">
         <v>497.71</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="2">
+        <v>0.29433900000000002</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
